--- a/references/Release9_DataDic/ICU_P.xlsx
+++ b/references/Release9_DataDic/ICU_P.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Healthy Brain Network\Data Sharing\Data Dictionaries\Public Data Dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data-1/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Release11_DataDic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4228A03-E1AA-8843-B131-E4FE7900DF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="25605" windowHeight="18375" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="25600" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>Question</t>
   </si>
@@ -191,9 +192,6 @@
     <t>Value Labels</t>
   </si>
   <si>
-    <t>0=Not at all true, 1=Somewhat true, 2=Very true, 3=Definitely true</t>
-  </si>
-  <si>
     <t>Inventory of Callous-Unemotional Traits (ICU) Parent Report</t>
   </si>
   <si>
@@ -204,12 +202,18 @@
   </si>
   <si>
     <t>ICU_P_Total</t>
+  </si>
+  <si>
+    <t>3=Not at all true,2=Somewhat true, 1=Very true, 0=Definitely true</t>
+  </si>
+  <si>
+    <t>0=Not at all true,1=Somewhat true, 2=Very true, 3=Definitely true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -254,6 +258,7 @@
       <sz val="16"/>
       <color rgb="FF0067A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,43 +312,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,464 +681,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.25" style="7" customWidth="1"/>
-    <col min="2" max="4" width="11" style="4"/>
-    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="68.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="28" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="3" t="s">
         <v>52</v>
       </c>
     </row>
